--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neung\PycharmProjects\bond_prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4260FA4-3654-44D4-81DE-2726232744AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BB825E-B9C3-44D0-A837-F52602A05103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="3578" windowWidth="21600" windowHeight="11422" xr2:uid="{B87EEC35-4644-4175-A542-28646D70448E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{B87EEC35-4644-4175-A542-28646D70448E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>수익</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,17 +81,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>convolution layer 14 (kernel_size = 5, 7)(VGG16 모방)</t>
-  </si>
-  <si>
     <t>['bond3Y','KOSPI','SP500','Gold','KR_CPI','KR_CA','KR_IMM','KR_Export']</t>
+  </si>
+  <si>
+    <t>cstm(cnn10(dropout=0.5,kernel=5,7), lstm1(hidden_size=64))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn(convolution layer 14 (kernel_size = 5, 7,dropout=0.3)(VGG16 모방))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn(convolution layer 14 (kernel_size = 5, 7,dropout=0.5)(VGG16 모방))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cstm(cnn6(dropout=0.5,kernel=5,7), lstm1(hidden_size=64))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cstm(cnn6(dropout=0.5,kernel=5,7), lstm1(hidden_size=128))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6469380(asset)+4993200(count(360)*1.387*10000)=11462580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[label_name,'bond3Y','KOSPI','SP500','Gold'] </t>
+  </si>
+  <si>
+    <t>[label_name,'bond3Y','KOSPI','KOSDAQ','SP500','Gold']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,9 +136,17 @@
     </font>
     <font>
       <sz val="9.35"/>
-      <color rgb="FFEB5757"/>
-      <name val="Consolas"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -157,7 +192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -167,10 +202,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,17 +525,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C025CBDB-4E35-4861-9BAF-760AFC17F226}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="11.9375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.4375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="15.3125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.6875" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.9375" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.9375" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.9375" style="2" customWidth="1"/>
@@ -550,10 +588,10 @@
         <v>46.67</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="2">
         <v>32</v>
@@ -567,12 +605,173 @@
       <c r="I2" s="2">
         <v>200</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10044530</v>
+      </c>
+      <c r="C3" s="2">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2">
+        <v>80</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>200</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10130100</v>
+      </c>
+      <c r="C4" s="2">
+        <v>47.62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2">
+        <v>80</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>200</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10090020</v>
+      </c>
+      <c r="C5" s="2">
+        <v>47.38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2">
+        <v>80</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>200</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>53.1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2">
+        <v>80</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>200</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10452240</v>
+      </c>
+      <c r="C7" s="2">
+        <v>57.86</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2">
+        <v>80</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>200</v>
+      </c>
+      <c r="J7" s="3">
         <v>1E-4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>